--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805FF001-E1E5-482F-B150-9C1856592191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97B5E30-E9AE-43B9-9D26-BEDD93A3987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11604" yWindow="4884" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97B5E30-E9AE-43B9-9D26-BEDD93A3987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C6C18-EB7C-412E-8713-5E682D0DA1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,23 +43,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>durationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitGenerateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005,1005,1005,1005,1005]</t>
+  </si>
+  <si>
+    <t>[1005,1005,1005,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[1005,1005,1005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1006,1006,1006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waitGenerateTime</t>
+    <t>[1005,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,20 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="43.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,13 +430,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -432,70 +444,79 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C6C18-EB7C-412E-8713-5E682D0DA1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002A583-7121-4C3B-98F7-987A4CC2573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -513,6 +513,40 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>600</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>900</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002A583-7121-4C3B-98F7-987A4CC2573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9A84B-4639-4C45-80EB-F5D98419209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -458,10 +458,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -472,10 +472,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -486,10 +486,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -500,10 +500,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -514,10 +514,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -531,7 +531,7 @@
         <v>600</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -545,7 +545,7 @@
         <v>900</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9A84B-4639-4C45-80EB-F5D98419209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C27A91-4AC2-456C-9703-28A40E1141AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -472,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C27A91-4AC2-456C-9703-28A40E1141AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51555862-5CFB-4905-8B63-1423468A9850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,18 +411,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="1"/>
-    <col min="2" max="2" width="43.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="43.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -472,13 +472,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,13 +486,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -514,13 +514,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51555862-5CFB-4905-8B63-1423468A9850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C163DB-5117-4452-9E14-ACEAC88D7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>[1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1006]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,6 +552,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C163DB-5117-4452-9E14-ACEAC88D7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2E43B-EDC5-4F71-9724-6FD19357ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,17 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1005,1005,1005,1005,1005]</t>
-  </si>
-  <si>
-    <t>[1005,1005,1005,1005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1005,1005,1005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1005,1005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +64,18 @@
   </si>
   <si>
     <t>[1006,1006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1006,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1006,1006,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1006,1006,1006,1005,1005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>45</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -473,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -487,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -501,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>90</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>600</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>900</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,13 +572,27 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C2E43B-EDC5-4F71-9724-6FD19357ECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD305E6-E392-4A87-AA7B-AC168C75DDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>[1006,1006,1006,1005,1005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1011]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,12 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,6 +608,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD305E6-E392-4A87-AA7B-AC168C75DDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CA3A4-08F4-47B1-B12E-E4A4327915FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>[1011]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,21 +430,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="43.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="43.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -468,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -496,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -510,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -524,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -538,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -552,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -580,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -594,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -608,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -619,6 +623,48 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
         <v>5</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CA3A4-08F4-47B1-B12E-E4A4327915FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236D55F-F851-4D35-BC5A-905A203D8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,7 +83,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1008]</t>
+    <t>[1008,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,11 +147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,6 +175,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,45 +657,87 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>160</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>240</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4">
+        <v>280</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236D55F-F851-4D35-BC5A-905A203D8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09ADEF2-1FC2-4939-AD11-D55435BA267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,19 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1008,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1008,1008,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1008,1008,1008,1008,1008]</t>
+    <t>[1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +455,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -661,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
         <v>100</v>
@@ -675,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -689,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -703,10 +695,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
@@ -717,10 +709,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
@@ -731,10 +723,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09ADEF2-1FC2-4939-AD11-D55435BA267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7270FC8-7161-45E5-9D8E-A3BCF0034E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7270FC8-7161-45E5-9D8E-A3BCF0034E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC58F0-A16F-4FF9-9A34-A79C4A8AAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
@@ -726,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC58F0-A16F-4FF9-9A34-A79C4A8AAAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA356C7-C0B4-43FA-8BE9-5B6E2AFBB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>WUYUE</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{3929F706-02D6-4FA6-93E4-338D979600AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>纯备注；请注明关卡+出兵区域编号+所属wave</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,13 +113,63 @@
   <si>
     <t>[1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descrption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_1_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_1_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_wave2</t>
+  </si>
+  <si>
+    <t>level_2_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008]</t>
+  </si>
+  <si>
+    <t>level_3_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_wave2</t>
+  </si>
+  <si>
+    <t>level_3_wave3</t>
+  </si>
+  <si>
+    <t>level_4_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_wave2</t>
+  </si>
+  <si>
+    <t>level_4_wave3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +184,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +208,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +263,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,22 +550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="43.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,261 +574,454 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>45</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>60</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
         <v>45</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>75</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>90</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>900</v>
       </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>10</v>
-      </c>
       <c r="D10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
       <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
         <v>60</v>
       </c>
-      <c r="D12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
       <c r="D14" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
       <c r="D15" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>10</v>
-      </c>
       <c r="D16" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>100</v>
       </c>
-      <c r="D17" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>100</v>
       </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>100</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>121</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>122</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>131</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>132</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>133</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>141</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>142</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>10</v>
       </c>
     </row>
@@ -736,5 +1029,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA356C7-C0B4-43FA-8BE9-5B6E2AFBB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD75135-E453-458C-AC7D-9BB29E6FBE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,12 +44,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{E6ADA2D7-5C86-4738-B202-75B0C8BDB907}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上一组兵全灭后等X秒出下一组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,41 +150,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_2_wave2</t>
-  </si>
-  <si>
-    <t>level_2_wave1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1008,1008,1008]</t>
   </si>
   <si>
-    <t>level_3_wave1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_3_wave2</t>
-  </si>
-  <si>
-    <t>level_3_wave3</t>
-  </si>
-  <si>
-    <t>level_4_wave1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_4_wave2</t>
-  </si>
-  <si>
-    <t>level_4_wave3</t>
+    <t>level_2_A172_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A166_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A166_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_A156_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_A122_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_A122_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_A176_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_3_A176_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_A79_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_A102_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_A102_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_A78_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_4_A78_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A164_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A164_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1007,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1008,1007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -551,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C31:C32"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -897,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -911,10 +991,10 @@
         <v>122</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -924,104 +1004,223 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
+        <v>123</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>124</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="5">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>125</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>131</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="B25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>132</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>134</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6">
+        <v>30</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>135</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6">
+        <v>30</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>142</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>143</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>144</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>133</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>141</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>142</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>143</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D33" s="2">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>145</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>30</v>
+      </c>
+      <c r="E34" s="2">
         <v>10</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD75135-E453-458C-AC7D-9BB29E6FBE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF9379-DC90-4AE3-9715-AB2EE9951D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level_3_A156_wave1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1008,1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +226,46 @@
   </si>
   <si>
     <t>[1007,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1007,1008,1008,1007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1007,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1007,1008,1007,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1008,1007,1007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1007,1008,1007,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1007,1008,1007,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1007,1007,1007,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1007,1007,1007,1007,1007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1007,1008,1007]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -994,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1008,10 +1040,10 @@
         <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1028,7 +1060,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5">
         <v>30</v>
@@ -1042,10 +1074,10 @@
         <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5">
         <v>30</v>
@@ -1059,10 +1091,10 @@
         <v>131</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1076,10 +1108,10 @@
         <v>132</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1093,10 +1125,10 @@
         <v>133</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1110,10 +1142,10 @@
         <v>134</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D28" s="6">
         <v>30</v>
@@ -1127,10 +1159,10 @@
         <v>135</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D29" s="6">
         <v>30</v>
@@ -1144,10 +1176,10 @@
         <v>141</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1161,10 +1193,10 @@
         <v>142</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1178,10 +1210,10 @@
         <v>143</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1195,10 +1227,10 @@
         <v>144</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2">
         <v>30</v>
@@ -1212,10 +1244,10 @@
         <v>145</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2">
         <v>30</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF9379-DC90-4AE3-9715-AB2EE9951D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125D34D-0584-4C64-B69E-D4146A9D5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,18 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1007,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1007,1008,1008,1007]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1007,1008,1008,1008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1008,1007,1008,1008,1007]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +258,10 @@
   </si>
   <si>
     <t>[1008,1007,1008,1007]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1008,1007,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,9 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1026,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1077,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>30</v>
@@ -1094,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1111,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1128,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1145,7 +1139,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="6">
         <v>30</v>
@@ -1162,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6">
         <v>30</v>
@@ -1179,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -1196,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1213,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1230,7 +1224,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
         <v>30</v>
@@ -1247,7 +1241,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2">
         <v>30</v>

--- a/GameDesign/ExcelData/PawnGroup_Data.xlsx
+++ b/GameDesign/ExcelData/PawnGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125D34D-0584-4C64-B69E-D4146A9D5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D042B1ED-00E0-4098-BF30-06BB651A7F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,14 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_2_A164_wave2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_2_A164_wave3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1008,1008,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,7 +253,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1008,1008,1007,1008,1008]</t>
+    <t>level_2_A165_wave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A163_wave2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_2_A163_wave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1007,1008,1008,1008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1008,1007,1008,1008]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1034,10 +1042,10 @@
         <v>123</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1054,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5">
         <v>30</v>
@@ -1068,10 +1076,10 @@
         <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5">
         <v>30</v>
@@ -1081,31 +1089,31 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>131</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="A25" s="5">
+        <v>126</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5">
         <v>1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1116,13 +1124,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1133,16 +1141,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D28" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E28" s="6">
         <v>10</v>
@@ -1150,13 +1158,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D29" s="6">
         <v>30</v>
@@ -1166,31 +1174,31 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>141</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="6">
+        <v>135</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6">
         <v>30</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="E30" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -1201,13 +1209,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -1218,16 +1226,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -1235,18 +1243,35 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2">
         <v>30</v>
       </c>
       <c r="E34" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="2">
+        <v>30</v>
+      </c>
+      <c r="E35" s="2">
         <v>10</v>
       </c>
     </row>
